--- a/server/Advanced_Panchakarma_Therapy_Master_Sheet.xlsx
+++ b/server/Advanced_Panchakarma_Therapy_Master_Sheet.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a033b97477b7928e/Documents/GitHub/AyurSutra/server/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BB4A5DCD8F31A8D550170BF1635BD61F512C42E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD81F0B-C4FA-46B7-8E47-CE24E2A50FE2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -256,9 +262,6 @@
     <t>Knee pain, stiffness</t>
   </si>
   <si>
-    <t>Tension headaches, hair fall</t>
-  </si>
-  <si>
     <t>Anxiety, palpitations (supportive)</t>
   </si>
   <si>
@@ -836,13 +839,16 @@
   </si>
   <si>
     <t>Cornerstone for Vata management</t>
+  </si>
+  <si>
+    <t>Tension headaches, hairfall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,13 +911,25 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -949,7 +967,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -983,6 +1001,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1017,9 +1036,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1192,14 +1212,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1254,34 +1276,34 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1295,34 +1317,34 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1336,34 +1358,34 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1377,34 +1399,34 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1418,34 +1440,34 @@
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1459,34 +1481,34 @@
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1500,34 +1522,34 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1541,34 +1563,34 @@
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1582,34 +1604,34 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1623,34 +1645,34 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1664,34 +1686,34 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1705,34 +1727,34 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1746,34 +1768,34 @@
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1787,34 +1809,34 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1828,34 +1850,34 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1869,34 +1891,34 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1910,34 +1932,34 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1951,34 +1973,34 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1992,34 +2014,34 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2033,34 +2055,34 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2071,37 +2093,37 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2112,37 +2134,37 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2153,34 +2175,34 @@
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
